--- a/Data/Input/Without_observations/xlsx/TETO_plan opazanja.xlsx
+++ b/Data/Input/Without_observations/xlsx/TETO_plan opazanja.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\Without_observations\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Observations" sheetId="2" r:id="rId1"/>
-    <sheet name="Points" sheetId="1" r:id="rId2"/>
+    <sheet name="Points" sheetId="1" r:id="rId1"/>
+    <sheet name="Observations" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -128,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -240,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,766 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:L63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36">
-        <v>5</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38">
-        <v>5</v>
-      </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40">
-        <v>5</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45">
-        <v>5</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48">
-        <v>5</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,4 +895,760 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Input/Without_observations/xlsx/TETO_plan opazanja.xlsx
+++ b/Data/Input/Without_observations/xlsx/TETO_plan opazanja.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\Without_observations\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -143,6 +138,18 @@
   </si>
   <si>
     <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
   </si>
 </sst>
 </file>
@@ -260,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,11 +517,11 @@
       <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -870,15 +877,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -930,8 +941,20 @@
       <c r="Q1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -944,8 +967,11 @@
       <c r="M2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -958,8 +984,11 @@
       <c r="M3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -969,8 +998,11 @@
       <c r="M4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -980,8 +1012,14 @@
       <c r="L5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -994,8 +1032,14 @@
       <c r="M6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1008,8 +1052,14 @@
       <c r="M7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1022,8 +1072,11 @@
       <c r="M8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1036,8 +1089,11 @@
       <c r="M9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1050,8 +1106,14 @@
       <c r="M10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1064,8 +1126,14 @@
       <c r="M11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1078,8 +1146,11 @@
       <c r="M12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1092,8 +1163,14 @@
       <c r="M13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1106,8 +1183,11 @@
       <c r="M14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1120,8 +1200,11 @@
       <c r="M15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1134,8 +1217,11 @@
       <c r="M16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1148,8 +1234,14 @@
       <c r="M17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1162,8 +1254,14 @@
       <c r="M18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1176,8 +1274,14 @@
       <c r="M19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1190,8 +1294,14 @@
       <c r="M20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1204,8 +1314,11 @@
       <c r="M21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1218,8 +1331,11 @@
       <c r="M22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1232,8 +1348,14 @@
       <c r="M23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1246,8 +1368,14 @@
       <c r="M24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1260,8 +1388,11 @@
       <c r="M25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1274,8 +1405,11 @@
       <c r="M26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1288,8 +1422,11 @@
       <c r="M27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1302,8 +1439,11 @@
       <c r="M28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1316,8 +1456,11 @@
       <c r="M29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1330,8 +1473,14 @@
       <c r="M30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1344,8 +1493,11 @@
       <c r="M31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1358,8 +1510,14 @@
       <c r="M32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1372,8 +1530,11 @@
       <c r="M33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1386,8 +1547,14 @@
       <c r="M34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1400,8 +1567,14 @@
       <c r="M35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1414,8 +1587,11 @@
       <c r="M36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1428,8 +1604,11 @@
       <c r="M37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1442,8 +1621,11 @@
       <c r="M38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1456,8 +1638,11 @@
       <c r="M39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1470,8 +1655,11 @@
       <c r="M40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1484,8 +1672,14 @@
       <c r="M41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1498,8 +1692,14 @@
       <c r="M42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1512,8 +1712,11 @@
       <c r="M43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -1526,8 +1729,14 @@
       <c r="M44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1540,8 +1749,11 @@
       <c r="M45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1554,8 +1766,11 @@
       <c r="M46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -1568,8 +1783,14 @@
       <c r="M47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1582,8 +1803,14 @@
       <c r="M48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -1596,8 +1823,14 @@
       <c r="M49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1610,8 +1843,11 @@
       <c r="M50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1623,6 +1859,9 @@
       </c>
       <c r="M51">
         <v>3</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
